--- a/biology/Biochimie/Oméga-9/Oméga-9.xlsx
+++ b/biology/Biochimie/Oméga-9/Oméga-9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Om%C3%A9ga-9</t>
+          <t>Oméga-9</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les acides gras oméga-9 sont des acides gras mono-insaturés possédant une double liaison carbone-carbone en neuvième position à partir de l'atome noté ω. 
 Le principal acide gras oméga-9 est l’acide oléique. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Om%C3%A9ga-9</t>
+          <t>Oméga-9</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste des principaux acides gras du groupe oméga-9 :
 l’acide oléique (18:1)
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Om%C3%A9ga-9</t>
+          <t>Oméga-9</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Sources alimentaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>On retrouve ces acides gras mono-insaturés en bonne quantité dans les aliments suivants :
 l’huile d'olive
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Om%C3%A9ga-9</t>
+          <t>Oméga-9</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,9 +604,11 @@
           <t>Effets bénéfiques sur la santé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme les autres acides gras mono-insaturés, les oméga-9 ont des effets bénéfiques reconnus contre les maladies cardio-vasculaires par leur action sur le cholestérol. Les acides gras oméga-9 ont également des effets bénéfiques sur les risques d’hypertension artérielle[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres acides gras mono-insaturés, les oméga-9 ont des effets bénéfiques reconnus contre les maladies cardio-vasculaires par leur action sur le cholestérol. Les acides gras oméga-9 ont également des effets bénéfiques sur les risques d’hypertension artérielle.
 </t>
         </is>
       </c>
